--- a/biology/Zoologie/Guêpier_à_barbe_bleue/Guêpier_à_barbe_bleue.xlsx
+++ b/biology/Zoologie/Guêpier_à_barbe_bleue/Guêpier_à_barbe_bleue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_%C3%A0_barbe_bleue</t>
+          <t>Guêpier_à_barbe_bleue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nyctyornis athertoni
 Le Guêpier à barbe bleue (Nyctyornis athertoni) est une espèce d'oiseaux de la famille des Meropidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_%C3%A0_barbe_bleue</t>
+          <t>Guêpier_à_barbe_bleue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Inde et en Asie du Sud-Est, le long des côtes maritimes et au pied de l'Himalaya.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_%C3%A0_barbe_bleue</t>
+          <t>Guêpier_à_barbe_bleue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le guêpier à barbe bleue mesure près de 35 cm et pèse de 70 à 93 g.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_%C3%A0_barbe_bleue</t>
+          <t>Guêpier_à_barbe_bleue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau des forêts épaisses.
 Il se tient plutôt dans les clairières, près des ruisseaux et des sentiers. 
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_%C3%A0_barbe_bleue</t>
+          <t>Guêpier_à_barbe_bleue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,10 +625,12 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le guêpier à barbe bleue est insectivore.
-Il se nourrit principalement de 2 ou 3 sortes d'abeilles dont les abeilles géantes apis dorsata[1] et de quelques familles de guêpes.
+Il se nourrit principalement de 2 ou 3 sortes d'abeilles dont les abeilles géantes apis dorsata et de quelques familles de guêpes.
 Il mange aussi des charançons, des scarabées, des passalidés (passalidae) et des libellules. On a retrouvé parfois dans leur gésier des coléoptères xylophages et des cloportes.
 </t>
         </is>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_%C3%A0_barbe_bleue</t>
+          <t>Guêpier_à_barbe_bleue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La période de reproduction se déroule en avril et mai (de février à août en Inde).
 Les deux parents creusent un nid dans un talus situé près d'un sentier de jungle ou d'une route, dans la paroi d'un ravin ou un glissement de terrain. La galerie dont le diamètre de l'entrée mesure une dizaine de centimètres atteint entre 1 mètre 30 et 3 mètres de profondeur. Elle aboutit à une chambre de ponte contenant autour de 6 œufs.
